--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD040_種族作成.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD040_種族作成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4C71AC-F634-415E-90B8-6B926004F377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0A313-CE84-44F4-975A-AA6D14502CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16356" yWindow="1728" windowWidth="13320" windowHeight="8916" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="13320" windowHeight="8916" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26092,7 +26093,7 @@
   <dimension ref="A6:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
